--- a/data/trans_dic/P55$privada-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P55$privada-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,9; 17,5</t>
+          <t>5,29; 16,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,37; 18,77</t>
+          <t>7,11; 20,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,3; 21,92</t>
+          <t>8,27; 21,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,72; 20,98</t>
+          <t>9,33; 20,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,2; 22,6</t>
+          <t>11,86; 22,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,34; 19,95</t>
+          <t>10,71; 20,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,86; 19,68</t>
+          <t>8,89; 19,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,31; 19,79</t>
+          <t>13,31; 20,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,58; 18,86</t>
+          <t>11,06; 19,15</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,23; 17,94</t>
+          <t>10,28; 17,98</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,04; 18,4</t>
+          <t>10,02; 18,66</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,77; 18,67</t>
+          <t>12,96; 18,85</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,06</t>
+          <t>0,0; 33,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,11; 39,97</t>
+          <t>4,91; 44,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,96; 35,95</t>
+          <t>6,56; 35,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,43; 28,18</t>
+          <t>9,85; 28,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,9; 85,21</t>
+          <t>29,52; 84,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,12; 59,38</t>
+          <t>10,86; 56,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,03; 32,68</t>
+          <t>6,45; 29,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,88; 32,98</t>
+          <t>16,19; 32,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,42; 51,32</t>
+          <t>15,48; 51,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,62; 41,84</t>
+          <t>12,7; 42,57</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,26; 28,72</t>
+          <t>9,43; 27,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,11; 27,65</t>
+          <t>15,17; 26,78</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1005,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,75; 79,12</t>
+          <t>9,46; 79,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1019,12 +1020,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,31; 50,49</t>
+          <t>9,76; 49,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,91; 91,76</t>
+          <t>29,04; 84,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1039,27 +1040,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,25; 51,31</t>
+          <t>15,91; 50,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,87; 75,05</t>
+          <t>29,29; 76,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,65; 100,0</t>
+          <t>16,27; 100,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,47; 79,51</t>
+          <t>18,33; 84,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,2; 43,63</t>
+          <t>17,87; 42,21</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,1; 17,85</t>
+          <t>7,32; 18,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,83; 20,93</t>
+          <t>8,3; 20,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,13; 21,11</t>
+          <t>9,49; 21,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,85; 21,46</t>
+          <t>11,9; 21,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,56; 27,69</t>
+          <t>16,6; 27,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,51; 22,0</t>
+          <t>12,41; 22,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,5; 21,35</t>
+          <t>11,22; 21,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,28; 21,3</t>
+          <t>15,69; 21,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,77; 22,51</t>
+          <t>14,36; 22,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,3; 19,6</t>
+          <t>12,19; 19,96</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,91; 19,76</t>
+          <t>11,92; 20,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,81; 19,96</t>
+          <t>15,02; 20,31</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, tiene ayuda privada cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10714</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14569</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>13498</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>13969</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>34903</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>37189</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>28242</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>41940</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>45617</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>51758</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>41739</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>55910</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5455; 17316</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8830; 24836</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7731; 20393</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9112; 20191</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>24417; 46745</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>26874; 50202</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>18536; 41315</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>34283; 51619</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>34147; 59141</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>38530; 67437</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>30275; 56352</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>46041; 66986</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3544</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4123</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7354</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7980</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6767</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8729</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12952</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8811</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10311</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12852</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>20306</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4715</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>984; 8892</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1502; 8202</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4238; 12107</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3984; 11441</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2298; 12017</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3357; 15206</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8850; 17556</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4286; 14308</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5228; 17525</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>7064; 20936</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>14818; 26157</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3465</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2028</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3887</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7511</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2208</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5500</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>10976</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>4237</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5500</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>8242</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>885; 7465</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>874; 2028</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1565</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1475; 7417</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3361; 9781</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4423</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1311; 6762</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2225; 7027</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6133; 16085</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1050; 6452</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2178; 10013</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5200; 12286</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>15010</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>20142</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>17621</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>25211</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>50394</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>46164</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>42470</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>59247</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>65404</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>66306</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>60091</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>84457</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>9267; 23059</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>12129; 29601</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>11525; 26215</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>18534; 33016</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>38331; 64313</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>34297; 60967</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>30009; 58628</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>51208; 70827</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>51325; 80466</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>51497; 84352</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>46339; 77914</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>72393; 97898</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>